--- a/biology/Zoologie/Emmett_Reid_Dunn/Emmett_Reid_Dunn.xlsx
+++ b/biology/Zoologie/Emmett_Reid_Dunn/Emmett_Reid_Dunn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmett Reid Dunn est un herpétologiste américain, né le 21 novembre 1894 à Alexandria (Virginie) et mort le 13 février 1956 à Bryn Mawr (Pennsylvanie).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné très jeune par les serpents, il est encouragé dans cette voie par Leonhard Hess Stejneger (1851-1943), conservateur du National Museum of Natural History lors de ses visites. Il obtient son Bachelor of Arts en 1915 et son Master of Arts en 1916. Il entre alors à l’American Museum of Natural History où, grâce à Mary Cynthia Dickerson (1866-1923), conservateur de l’herpétologie, il part pour sa première mission d’étude dans les montagnes de l’ouest de la Caroline du Nord. Il y découvre et se passionne pour les salamandres. Elles seront le sujet de son unique livre, The Salamanders of the Family Plethodontidae (1926, réimprimé en 1972).
 Dunn commence à enseigner dans une université pour femmes, le Smith College dans l’ouest du Massachusetts. Durant la Première Guerre mondiale, il souhaite s’engager dans une école d’officiers mais l’armée le refuse arguant que passer ses week-ends à récolter des salamandres et des serpents est indigne d’un officier. La marine n’a pas ces réticences et il devient enseigne en 1917 et sert comme sous-marinier.
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
